--- a/Functional_Testing/TestDatas/LoginData.xlsx
+++ b/Functional_Testing/TestDatas/LoginData.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C49524F-7BF6-4EE6-8365-E2F5D0ABA6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{80643E36-708D-4630-957F-C36296E9FEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Email</t>
   </si>
@@ -90,34 +86,41 @@
     <t>Invalid email address and Password should be atleast 7 characters with alphanumeric characters</t>
   </si>
   <si>
+    <t>rachel1@infy.com</t>
+  </si>
+  <si>
+    <t>RACHEL@123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>emptypa@12</t>
+  </si>
+  <si>
+    <t>Invalid email address</t>
+  </si>
+  <si>
+    <t>Emptyemail@gmail.com</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Password should be atleast 7 characters with alphanumeric characters</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid Email Address </t>
   </si>
   <si>
-    <t>rachel1@infy.com</t>
-  </si>
-  <si>
-    <t>RACHEL@123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>emptypa@12</t>
-  </si>
-  <si>
-    <t>Invalid email address</t>
-  </si>
-  <si>
-    <t>Emptyemail@gmail.com</t>
+    <t>Invalid parameters provided. Please provide valid parameters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,16 +547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="87.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="64.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +673,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -684,44 +687,44 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Functional_Testing/TestDatas/LoginData.xlsx
+++ b/Functional_Testing/TestDatas/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
   <si>
     <t>Email</t>
   </si>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>Invalid parameters provided. Please provide valid parameters.</t>
+  </si>
+  <si>
+    <t>Yoloj
+Manage your
+personal &amp; professional Identity
+Yolos delivers you the exquisite service by providing you the platform
+to build your peronal &amp; professional identity to manage your individual and business
+expertises all over the world.</t>
   </si>
 </sst>
 </file>

--- a/Functional_Testing/TestDatas/LoginData.xlsx
+++ b/Functional_Testing/TestDatas/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Email</t>
   </si>
@@ -127,12 +127,16 @@
   </si>
   <si>
     <t>$%@ga.com</t>
+  </si>
+  <si>
+    <t>Invalid parameters provided. Please provide valid parameters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,10 +573,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="87.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="64.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Functional_Testing/TestDatas/LoginData.xlsx
+++ b/Functional_Testing/TestDatas/LoginData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>Email</t>
   </si>
@@ -130,6 +130,11 @@
   </si>
   <si>
     <t>Invalid parameters provided. Please provide valid parameters.</t>
+  </si>
+  <si>
+    <t>Profiles based on Bengaluru
+See all profiles from
+Bengaluru</t>
   </si>
 </sst>
 </file>
@@ -604,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/Functional_Testing/TestDatas/LoginData.xlsx
+++ b/Functional_Testing/TestDatas/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Downloads\Testcase_new\automation_testcase\Functional_Testing\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2948F4-43EB-452C-93BB-336823BC60ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0C8C4-2CB4-4D71-BDE9-36BEA387D33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Email</t>
   </si>
@@ -132,9 +132,22 @@
     <t>Invalid parameters provided. Please provide valid parameters.</t>
   </si>
   <si>
-    <t>Profiles based on Bengaluru
-See all profiles from
-Bengaluru</t>
+    <t>123@g.com</t>
+  </si>
+  <si>
+    <t>test@g.com</t>
+  </si>
+  <si>
+    <t>a12@gm.com</t>
+  </si>
+  <si>
+    <t>Ross@1235</t>
+  </si>
+  <si>
+    <t>Ross@1236</t>
+  </si>
+  <si>
+    <t>Ross@1237</t>
   </si>
 </sst>
 </file>
@@ -142,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +213,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,10 +824,53 @@
         <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A8" r:id="rId2" xr:uid="{3B5A904A-32DA-4C4E-8311-C5CD9415491C}"/>
@@ -818,8 +880,9 @@
     <hyperlink ref="A11" r:id="rId6" xr:uid="{2427881E-7FD2-441D-BAA2-6190F91E5575}"/>
     <hyperlink ref="A13" r:id="rId7" xr:uid="{25A79BF3-B1C0-4E31-A6E0-FDEE128DCD45}"/>
     <hyperlink ref="A14" r:id="rId8" xr:uid="{2F697A41-CCDE-4ABA-A413-AC1FCC4A3E09}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{9A2E7F7D-9D57-4759-8087-B732F4C36DD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>